--- a/output7/【河洛白話注音-雅俗通】《上有力量的每日祈禱文》.xlsx
+++ b/output7/【河洛白話注音-雅俗通】《上有力量的每日祈禱文》.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F4E8213-E86A-4880-8D72-9F0E63A40B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{509EA809-84B8-4EB5-A6B0-062F3C8B9C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23970" yWindow="2460" windowWidth="22575" windowHeight="12555" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="634">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2355,248 +2355,300 @@
     <t>與</t>
   </si>
   <si>
-    <t>siong7</t>
-  </si>
-  <si>
-    <t>lik8</t>
-  </si>
-  <si>
-    <t>mui2</t>
-  </si>
-  <si>
-    <t>ki5</t>
-  </si>
-  <si>
-    <t>to2</t>
-  </si>
-  <si>
-    <t>bun5</t>
-  </si>
-  <si>
-    <t>khiam1</t>
-  </si>
-  <si>
-    <t>pi1</t>
+    <t>《上有力量的每日祈禱文》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭七時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經八柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規二毛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居五求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高二地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君五門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艍七英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丩七耐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伽五英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巾八柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君二語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼一去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居一邊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>te7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>伽七地</t>
-  </si>
-  <si>
-    <t>king3</t>
-  </si>
-  <si>
-    <t>giong2</t>
-  </si>
-  <si>
-    <t>zan3</t>
-  </si>
-  <si>
-    <t>kam2</t>
-  </si>
-  <si>
-    <t>sia7</t>
-  </si>
-  <si>
-    <t>hok8</t>
-  </si>
-  <si>
-    <t>ziong5</t>
-  </si>
-  <si>
-    <t>kap4</t>
-  </si>
-  <si>
-    <t>ai3</t>
-  </si>
-  <si>
-    <t>zuan5</t>
-  </si>
-  <si>
-    <t>ling5</t>
-  </si>
-  <si>
-    <t>siang7</t>
-  </si>
-  <si>
-    <t>te3</t>
-  </si>
-  <si>
-    <t>zi3</t>
-  </si>
-  <si>
-    <t>ko1</t>
-  </si>
-  <si>
-    <t>ui2</t>
-  </si>
-  <si>
-    <t>su3</t>
-  </si>
-  <si>
-    <t>sun5</t>
-  </si>
-  <si>
-    <t>soo3</t>
-  </si>
-  <si>
-    <t>se3</t>
-  </si>
-  <si>
-    <t>kai3</t>
-  </si>
-  <si>
-    <t>ho5</t>
-  </si>
-  <si>
-    <t>hun5</t>
-  </si>
-  <si>
-    <t>thuat4</t>
-  </si>
-  <si>
-    <t>ui5</t>
-  </si>
-  <si>
-    <t>li5</t>
-  </si>
-  <si>
-    <t>si7</t>
-  </si>
-  <si>
-    <t>ziong1</t>
-  </si>
-  <si>
-    <t>kik8</t>
-  </si>
-  <si>
-    <t>su1</t>
-  </si>
-  <si>
-    <t>kiu3</t>
-  </si>
-  <si>
-    <t>siok8</t>
-  </si>
-  <si>
-    <t>zun1</t>
-  </si>
-  <si>
-    <t>soo2</t>
-  </si>
-  <si>
-    <t>sing3</t>
-  </si>
-  <si>
-    <t>tiat4</t>
-  </si>
-  <si>
-    <t>hue3</t>
-  </si>
-  <si>
-    <t>tai7</t>
-  </si>
-  <si>
-    <t>sing1</t>
-  </si>
-  <si>
-    <t>《上有力量的每日祈禱文》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iu2</t>
-  </si>
-  <si>
-    <t>丩二英</t>
-  </si>
-  <si>
-    <t>liong7</t>
-  </si>
-  <si>
-    <t>恭七柳</t>
-  </si>
-  <si>
-    <t>tik4</t>
-  </si>
-  <si>
-    <t>經四地</t>
-  </si>
-  <si>
-    <t>jit8</t>
-  </si>
-  <si>
-    <t>巾八入</t>
-  </si>
-  <si>
-    <t>guan2</t>
-  </si>
-  <si>
-    <t>觀二語</t>
-  </si>
-  <si>
-    <t>bi2</t>
-  </si>
-  <si>
-    <t>bu5</t>
-  </si>
-  <si>
-    <t>艍五門</t>
-  </si>
-  <si>
-    <t>u2</t>
-  </si>
-  <si>
-    <t>ping5</t>
-  </si>
-  <si>
-    <t>kai2</t>
-  </si>
-  <si>
-    <t>it4</t>
-  </si>
-  <si>
-    <t>zu2</t>
-  </si>
-  <si>
-    <t>艍二曾</t>
-  </si>
-  <si>
-    <t>i1</t>
-  </si>
-  <si>
-    <t>居一英</t>
-  </si>
-  <si>
-    <t>bing5</t>
-  </si>
-  <si>
-    <t>經五門</t>
-  </si>
-  <si>
-    <t>jin5</t>
-  </si>
-  <si>
-    <t>巾五入</t>
-  </si>
-  <si>
-    <t>kau3</t>
-  </si>
-  <si>
-    <t>交三求</t>
-  </si>
-  <si>
-    <t>piau2</t>
-  </si>
-  <si>
-    <t>嬌二邊</t>
-  </si>
-  <si>
-    <t>the5</t>
-  </si>
-  <si>
-    <t>伽五他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經三求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭二語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干三曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sui2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規二時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘二求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迦七時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公八喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭五曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘四求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皆三英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觀五曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經五柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜七時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伽三地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居三曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高五門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規二英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓜七地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艍三時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘四語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君五時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽三時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伽三時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皆三求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高五喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pinn5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梔五邊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君五喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thau2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交二他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觀四他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規五英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zit8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巾八曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驚二求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居五柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巾一英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居七時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭一曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經八求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巾五門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艍一時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丩三求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭八時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君一曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽二時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經三時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lang5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江五柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堅四地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膠三求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檜三喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皆七地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茄二邊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檜八他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經一時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6639,7 +6691,7 @@
         <v>165</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>609</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -6782,8 +6834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B1:V242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A48" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -6864,34 +6916,34 @@
     <row r="4" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="56"/>
       <c r="D4" s="119" t="s">
-        <v>560</v>
+        <v>266</v>
       </c>
       <c r="E4" s="119" t="s">
-        <v>610</v>
+        <v>267</v>
       </c>
       <c r="F4" s="119" t="s">
-        <v>561</v>
+        <v>268</v>
       </c>
       <c r="G4" s="119" t="s">
-        <v>612</v>
+        <v>469</v>
       </c>
       <c r="H4" s="119" t="s">
-        <v>614</v>
+        <v>269</v>
       </c>
       <c r="I4" s="119" t="s">
-        <v>562</v>
+        <v>270</v>
       </c>
       <c r="J4" s="119" t="s">
-        <v>616</v>
+        <v>271</v>
       </c>
       <c r="K4" s="119" t="s">
-        <v>563</v>
+        <v>272</v>
       </c>
       <c r="L4" s="119" t="s">
-        <v>564</v>
+        <v>273</v>
       </c>
       <c r="M4" s="119" t="s">
-        <v>565</v>
+        <v>274</v>
       </c>
       <c r="N4" s="119"/>
       <c r="O4" s="105"/>
@@ -6951,34 +7003,34 @@
       <c r="B6" s="58"/>
       <c r="C6" s="85"/>
       <c r="D6" s="120" t="s">
-        <v>334</v>
+        <v>561</v>
       </c>
       <c r="E6" s="120" t="s">
-        <v>611</v>
+        <v>567</v>
       </c>
       <c r="F6" s="120" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
       <c r="G6" s="120" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
       <c r="H6" s="120" t="s">
-        <v>615</v>
+        <v>569</v>
       </c>
       <c r="I6" s="120" t="s">
-        <v>338</v>
+        <v>563</v>
       </c>
       <c r="J6" s="120" t="s">
-        <v>617</v>
+        <v>570</v>
       </c>
       <c r="K6" s="120" t="s">
-        <v>340</v>
+        <v>564</v>
       </c>
       <c r="L6" s="120" t="s">
-        <v>341</v>
+        <v>565</v>
       </c>
       <c r="M6" s="120" t="s">
-        <v>342</v>
+        <v>566</v>
       </c>
       <c r="N6" s="120"/>
       <c r="O6" s="106"/>
@@ -7100,43 +7152,43 @@
     <row r="12" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="56"/>
       <c r="D12" s="119" t="s">
-        <v>618</v>
+        <v>275</v>
       </c>
       <c r="E12" s="119" t="s">
-        <v>566</v>
+        <v>276</v>
       </c>
       <c r="F12" s="119" t="s">
-        <v>567</v>
+        <v>277</v>
       </c>
       <c r="G12" s="119" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="H12" s="119" t="s">
-        <v>570</v>
+        <v>278</v>
       </c>
       <c r="I12" s="119" t="s">
-        <v>571</v>
+        <v>279</v>
       </c>
       <c r="J12" s="119"/>
       <c r="K12" s="119" t="s">
-        <v>572</v>
+        <v>323</v>
       </c>
       <c r="L12" s="119" t="s">
-        <v>620</v>
+        <v>579</v>
       </c>
       <c r="M12" s="119"/>
       <c r="N12" s="119" t="s">
-        <v>573</v>
+        <v>280</v>
       </c>
       <c r="O12" s="119" t="s">
-        <v>574</v>
+        <v>316</v>
       </c>
       <c r="P12" s="119"/>
       <c r="Q12" s="119" t="s">
-        <v>575</v>
+        <v>281</v>
       </c>
       <c r="R12" s="119" t="s">
-        <v>576</v>
+        <v>324</v>
       </c>
       <c r="S12" s="91"/>
       <c r="V12" s="108"/>
@@ -7197,43 +7249,43 @@
     <row r="14" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="58"/>
       <c r="D14" s="120" t="s">
-        <v>619</v>
+        <v>571</v>
       </c>
       <c r="E14" s="120" t="s">
-        <v>344</v>
+        <v>572</v>
       </c>
       <c r="F14" s="120" t="s">
-        <v>345</v>
+        <v>573</v>
       </c>
       <c r="G14" s="120" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="H14" s="120" t="s">
-        <v>347</v>
+        <v>576</v>
       </c>
       <c r="I14" s="120" t="s">
-        <v>348</v>
+        <v>577</v>
       </c>
       <c r="J14" s="120"/>
       <c r="K14" s="120" t="s">
-        <v>349</v>
+        <v>578</v>
       </c>
       <c r="L14" s="120" t="s">
-        <v>350</v>
+        <v>580</v>
       </c>
       <c r="M14" s="120"/>
       <c r="N14" s="120" t="s">
-        <v>351</v>
+        <v>581</v>
       </c>
       <c r="O14" s="120" t="s">
-        <v>352</v>
+        <v>582</v>
       </c>
       <c r="P14" s="120"/>
       <c r="Q14" s="120" t="s">
-        <v>353</v>
+        <v>583</v>
       </c>
       <c r="R14" s="120" t="s">
-        <v>354</v>
+        <v>584</v>
       </c>
       <c r="S14" s="94"/>
       <c r="V14" s="108"/>
@@ -7261,47 +7313,47 @@
     <row r="16" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="56"/>
       <c r="D16" s="119" t="s">
-        <v>577</v>
+        <v>257</v>
       </c>
       <c r="E16" s="119" t="s">
-        <v>578</v>
+        <v>282</v>
       </c>
       <c r="F16" s="119" t="s">
-        <v>579</v>
+        <v>325</v>
       </c>
       <c r="G16" s="119" t="s">
-        <v>580</v>
+        <v>283</v>
       </c>
       <c r="H16" s="119" t="s">
-        <v>614</v>
+        <v>269</v>
       </c>
       <c r="I16" s="119" t="s">
-        <v>581</v>
+        <v>284</v>
       </c>
       <c r="J16" s="119" t="s">
-        <v>582</v>
+        <v>285</v>
       </c>
       <c r="K16" s="119"/>
       <c r="L16" s="119" t="s">
-        <v>583</v>
+        <v>326</v>
       </c>
       <c r="M16" s="119" t="s">
-        <v>584</v>
+        <v>286</v>
       </c>
       <c r="N16" s="119" t="s">
-        <v>621</v>
+        <v>287</v>
       </c>
       <c r="O16" s="119" t="s">
-        <v>581</v>
+        <v>284</v>
       </c>
       <c r="P16" s="119" t="s">
-        <v>614</v>
+        <v>269</v>
       </c>
       <c r="Q16" s="119" t="s">
-        <v>581</v>
+        <v>284</v>
       </c>
       <c r="R16" s="119" t="s">
-        <v>582</v>
+        <v>285</v>
       </c>
       <c r="S16" s="91"/>
       <c r="V16" s="108"/>
@@ -7362,47 +7414,47 @@
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="58"/>
       <c r="D18" s="120" t="s">
-        <v>373</v>
+        <v>585</v>
       </c>
       <c r="E18" s="120" t="s">
-        <v>356</v>
+        <v>586</v>
       </c>
       <c r="F18" s="120" t="s">
-        <v>357</v>
+        <v>587</v>
       </c>
       <c r="G18" s="120" t="s">
-        <v>358</v>
+        <v>588</v>
       </c>
       <c r="H18" s="120" t="s">
-        <v>615</v>
+        <v>569</v>
       </c>
       <c r="I18" s="120" t="s">
-        <v>359</v>
+        <v>589</v>
       </c>
       <c r="J18" s="120" t="s">
-        <v>360</v>
+        <v>590</v>
       </c>
       <c r="K18" s="120"/>
       <c r="L18" s="120" t="s">
-        <v>361</v>
+        <v>591</v>
       </c>
       <c r="M18" s="120" t="s">
-        <v>362</v>
+        <v>592</v>
       </c>
       <c r="N18" s="120" t="s">
-        <v>622</v>
+        <v>593</v>
       </c>
       <c r="O18" s="120" t="s">
-        <v>359</v>
+        <v>589</v>
       </c>
       <c r="P18" s="120" t="s">
-        <v>615</v>
+        <v>569</v>
       </c>
       <c r="Q18" s="120" t="s">
-        <v>359</v>
+        <v>589</v>
       </c>
       <c r="R18" s="120" t="s">
-        <v>360</v>
+        <v>590</v>
       </c>
       <c r="S18" s="94"/>
       <c r="V18" s="108"/>
@@ -7431,41 +7483,41 @@
       <c r="B20" s="56"/>
       <c r="D20" s="119"/>
       <c r="E20" s="119" t="s">
-        <v>581</v>
+        <v>284</v>
       </c>
       <c r="F20" s="119" t="s">
-        <v>585</v>
+        <v>288</v>
       </c>
       <c r="G20" s="119" t="s">
-        <v>607</v>
+        <v>289</v>
       </c>
       <c r="H20" s="119" t="s">
-        <v>614</v>
+        <v>269</v>
       </c>
       <c r="I20" s="119" t="s">
-        <v>581</v>
+        <v>284</v>
       </c>
       <c r="J20" s="119" t="s">
-        <v>582</v>
+        <v>285</v>
       </c>
       <c r="K20" s="119"/>
       <c r="L20" s="119" t="s">
-        <v>586</v>
+        <v>290</v>
       </c>
       <c r="M20" s="119" t="s">
-        <v>623</v>
+        <v>333</v>
       </c>
       <c r="N20" s="119" t="s">
-        <v>587</v>
+        <v>291</v>
       </c>
       <c r="O20" s="119" t="s">
-        <v>588</v>
+        <v>292</v>
       </c>
       <c r="P20" s="119" t="s">
-        <v>589</v>
+        <v>314</v>
       </c>
       <c r="Q20" s="119" t="s">
-        <v>590</v>
+        <v>293</v>
       </c>
       <c r="R20" s="119"/>
       <c r="S20" s="91"/>
@@ -7528,41 +7580,41 @@
       <c r="B22" s="58"/>
       <c r="D22" s="120"/>
       <c r="E22" s="120" t="s">
-        <v>359</v>
+        <v>589</v>
       </c>
       <c r="F22" s="120" t="s">
-        <v>364</v>
+        <v>594</v>
       </c>
       <c r="G22" s="120" t="s">
-        <v>396</v>
+        <v>595</v>
       </c>
       <c r="H22" s="120" t="s">
-        <v>615</v>
+        <v>569</v>
       </c>
       <c r="I22" s="120" t="s">
-        <v>359</v>
+        <v>589</v>
       </c>
       <c r="J22" s="120" t="s">
-        <v>360</v>
+        <v>590</v>
       </c>
       <c r="K22" s="120"/>
       <c r="L22" s="120" t="s">
-        <v>366</v>
+        <v>596</v>
       </c>
       <c r="M22" s="120" t="s">
-        <v>479</v>
+        <v>597</v>
       </c>
       <c r="N22" s="120" t="s">
-        <v>367</v>
+        <v>598</v>
       </c>
       <c r="O22" s="120" t="s">
-        <v>368</v>
+        <v>599</v>
       </c>
       <c r="P22" s="120" t="s">
-        <v>369</v>
+        <v>600</v>
       </c>
       <c r="Q22" s="120" t="s">
-        <v>370</v>
+        <v>601</v>
       </c>
       <c r="R22" s="120"/>
       <c r="S22" s="94"/>
@@ -7591,37 +7643,37 @@
     <row r="24" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="56"/>
       <c r="D24" s="119" t="s">
-        <v>589</v>
+        <v>314</v>
       </c>
       <c r="E24" s="119" t="s">
-        <v>590</v>
+        <v>293</v>
       </c>
       <c r="F24" s="119" t="s">
-        <v>591</v>
+        <v>327</v>
       </c>
       <c r="G24" s="119" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="H24" s="119" t="s">
-        <v>577</v>
+        <v>257</v>
       </c>
       <c r="I24" s="119" t="s">
-        <v>618</v>
+        <v>275</v>
       </c>
       <c r="J24" s="119" t="s">
-        <v>580</v>
+        <v>283</v>
       </c>
       <c r="K24" s="119" t="s">
-        <v>592</v>
+        <v>294</v>
       </c>
       <c r="L24" s="119" t="s">
-        <v>614</v>
+        <v>269</v>
       </c>
       <c r="M24" s="119" t="s">
-        <v>625</v>
+        <v>606</v>
       </c>
       <c r="N24" s="119" t="s">
-        <v>593</v>
+        <v>295</v>
       </c>
       <c r="O24" s="119"/>
       <c r="P24" s="119"/>
@@ -7684,37 +7736,37 @@
     <row r="26" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="58"/>
       <c r="D26" s="120" t="s">
-        <v>369</v>
+        <v>600</v>
       </c>
       <c r="E26" s="120" t="s">
-        <v>370</v>
+        <v>601</v>
       </c>
       <c r="F26" s="120" t="s">
-        <v>371</v>
+        <v>602</v>
       </c>
       <c r="G26" s="120" t="s">
-        <v>372</v>
+        <v>604</v>
       </c>
       <c r="H26" s="120" t="s">
-        <v>373</v>
+        <v>585</v>
       </c>
       <c r="I26" s="120" t="s">
-        <v>619</v>
+        <v>571</v>
       </c>
       <c r="J26" s="120" t="s">
-        <v>358</v>
+        <v>588</v>
       </c>
       <c r="K26" s="120" t="s">
-        <v>374</v>
+        <v>605</v>
       </c>
       <c r="L26" s="120" t="s">
-        <v>615</v>
+        <v>569</v>
       </c>
       <c r="M26" s="120" t="s">
-        <v>375</v>
+        <v>607</v>
       </c>
       <c r="N26" s="120" t="s">
-        <v>376</v>
+        <v>608</v>
       </c>
       <c r="O26" s="120"/>
       <c r="P26" s="120"/>
@@ -7857,47 +7909,47 @@
     <row r="32" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="56"/>
       <c r="D32" s="119" t="s">
-        <v>618</v>
+        <v>275</v>
       </c>
       <c r="E32" s="119" t="s">
-        <v>573</v>
+        <v>280</v>
       </c>
       <c r="F32" s="119" t="s">
-        <v>574</v>
+        <v>316</v>
       </c>
       <c r="G32" s="119"/>
       <c r="H32" s="119" t="s">
-        <v>578</v>
+        <v>282</v>
       </c>
       <c r="I32" s="119" t="s">
-        <v>591</v>
+        <v>327</v>
       </c>
       <c r="J32" s="119" t="s">
-        <v>572</v>
+        <v>323</v>
       </c>
       <c r="K32" s="119" t="s">
-        <v>620</v>
+        <v>579</v>
       </c>
       <c r="L32" s="119" t="s">
-        <v>581</v>
+        <v>284</v>
       </c>
       <c r="M32" s="119" t="s">
-        <v>582</v>
+        <v>285</v>
       </c>
       <c r="N32" s="119" t="s">
-        <v>594</v>
+        <v>296</v>
       </c>
       <c r="O32" s="119" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="P32" s="119" t="s">
-        <v>614</v>
+        <v>269</v>
       </c>
       <c r="Q32" s="119" t="s">
-        <v>627</v>
+        <v>297</v>
       </c>
       <c r="R32" s="119" t="s">
-        <v>595</v>
+        <v>298</v>
       </c>
       <c r="S32" s="91"/>
       <c r="U32" s="67" t="str">
@@ -7962,47 +8014,47 @@
     <row r="34" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="58"/>
       <c r="D34" s="120" t="s">
-        <v>619</v>
+        <v>571</v>
       </c>
       <c r="E34" s="120" t="s">
-        <v>351</v>
+        <v>581</v>
       </c>
       <c r="F34" s="120" t="s">
-        <v>352</v>
+        <v>582</v>
       </c>
       <c r="G34" s="120"/>
       <c r="H34" s="120" t="s">
-        <v>356</v>
+        <v>586</v>
       </c>
       <c r="I34" s="120" t="s">
-        <v>371</v>
+        <v>602</v>
       </c>
       <c r="J34" s="120" t="s">
-        <v>349</v>
+        <v>578</v>
       </c>
       <c r="K34" s="120" t="s">
-        <v>350</v>
+        <v>580</v>
       </c>
       <c r="L34" s="120" t="s">
-        <v>359</v>
+        <v>589</v>
       </c>
       <c r="M34" s="120" t="s">
-        <v>360</v>
+        <v>590</v>
       </c>
       <c r="N34" s="120" t="s">
-        <v>377</v>
+        <v>609</v>
       </c>
       <c r="O34" s="120" t="s">
-        <v>378</v>
+        <v>611</v>
       </c>
       <c r="P34" s="120" t="s">
-        <v>615</v>
+        <v>569</v>
       </c>
       <c r="Q34" s="120" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="R34" s="120" t="s">
-        <v>380</v>
+        <v>613</v>
       </c>
       <c r="S34" s="94"/>
       <c r="V34" s="60"/>
@@ -8031,38 +8083,38 @@
       <c r="B36" s="56"/>
       <c r="D36" s="119"/>
       <c r="E36" s="119" t="s">
-        <v>629</v>
+        <v>299</v>
       </c>
       <c r="F36" s="119" t="s">
-        <v>596</v>
+        <v>300</v>
       </c>
       <c r="G36" s="119" t="s">
-        <v>597</v>
+        <v>328</v>
       </c>
       <c r="H36" s="119" t="s">
-        <v>598</v>
+        <v>301</v>
       </c>
       <c r="I36" s="119" t="s">
-        <v>631</v>
+        <v>302</v>
       </c>
       <c r="J36" s="119" t="s">
-        <v>599</v>
+        <v>264</v>
       </c>
       <c r="K36" s="119"/>
       <c r="L36" s="119" t="s">
-        <v>586</v>
+        <v>290</v>
       </c>
       <c r="M36" s="119" t="s">
-        <v>623</v>
+        <v>333</v>
       </c>
       <c r="N36" s="119" t="s">
-        <v>618</v>
+        <v>275</v>
       </c>
       <c r="O36" s="119" t="s">
-        <v>600</v>
+        <v>303</v>
       </c>
       <c r="P36" s="119" t="s">
-        <v>601</v>
+        <v>317</v>
       </c>
       <c r="Q36" s="119"/>
       <c r="R36" s="119"/>
@@ -8128,38 +8180,38 @@
       <c r="B38" s="58"/>
       <c r="D38" s="120"/>
       <c r="E38" s="120" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="F38" s="120" t="s">
-        <v>382</v>
+        <v>615</v>
       </c>
       <c r="G38" s="120" t="s">
-        <v>383</v>
+        <v>616</v>
       </c>
       <c r="H38" s="120" t="s">
-        <v>384</v>
+        <v>617</v>
       </c>
       <c r="I38" s="120" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="J38" s="120" t="s">
-        <v>386</v>
+        <v>619</v>
       </c>
       <c r="K38" s="120"/>
       <c r="L38" s="120" t="s">
-        <v>366</v>
+        <v>596</v>
       </c>
       <c r="M38" s="120" t="s">
-        <v>479</v>
+        <v>597</v>
       </c>
       <c r="N38" s="120" t="s">
-        <v>619</v>
+        <v>571</v>
       </c>
       <c r="O38" s="120" t="s">
-        <v>388</v>
+        <v>620</v>
       </c>
       <c r="P38" s="120" t="s">
-        <v>389</v>
+        <v>621</v>
       </c>
       <c r="Q38" s="120"/>
       <c r="R38" s="120"/>
@@ -8276,47 +8328,47 @@
     <row r="44" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="56"/>
       <c r="D44" s="119" t="s">
-        <v>618</v>
+        <v>275</v>
       </c>
       <c r="E44" s="119" t="s">
-        <v>602</v>
+        <v>329</v>
       </c>
       <c r="F44" s="119" t="s">
-        <v>587</v>
+        <v>291</v>
       </c>
       <c r="G44" s="119" t="s">
-        <v>603</v>
+        <v>304</v>
       </c>
       <c r="H44" s="119" t="s">
-        <v>610</v>
+        <v>267</v>
       </c>
       <c r="I44" s="119" t="s">
-        <v>604</v>
+        <v>305</v>
       </c>
       <c r="J44" s="119" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="K44" s="119" t="s">
-        <v>577</v>
+        <v>257</v>
       </c>
       <c r="L44" s="119" t="s">
-        <v>604</v>
+        <v>305</v>
       </c>
       <c r="M44" s="119" t="s">
-        <v>605</v>
+        <v>307</v>
       </c>
       <c r="N44" s="119" t="s">
-        <v>614</v>
+        <v>269</v>
       </c>
       <c r="O44" s="119" t="s">
-        <v>635</v>
+        <v>308</v>
       </c>
       <c r="P44" s="119" t="s">
-        <v>606</v>
+        <v>309</v>
       </c>
       <c r="Q44" s="119"/>
       <c r="R44" s="119" t="s">
-        <v>618</v>
+        <v>275</v>
       </c>
       <c r="S44" s="91"/>
       <c r="V44" s="60"/>
@@ -8377,47 +8429,47 @@
     <row r="46" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="58"/>
       <c r="D46" s="120" t="s">
-        <v>619</v>
+        <v>571</v>
       </c>
       <c r="E46" s="120" t="s">
-        <v>390</v>
+        <v>622</v>
       </c>
       <c r="F46" s="120" t="s">
-        <v>367</v>
+        <v>598</v>
       </c>
       <c r="G46" s="120" t="s">
-        <v>391</v>
+        <v>623</v>
       </c>
       <c r="H46" s="120" t="s">
-        <v>611</v>
+        <v>567</v>
       </c>
       <c r="I46" s="120" t="s">
-        <v>392</v>
+        <v>624</v>
       </c>
       <c r="J46" s="120" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="K46" s="120" t="s">
-        <v>373</v>
+        <v>585</v>
       </c>
       <c r="L46" s="120" t="s">
-        <v>392</v>
+        <v>624</v>
       </c>
       <c r="M46" s="120" t="s">
-        <v>393</v>
+        <v>627</v>
       </c>
       <c r="N46" s="120" t="s">
-        <v>615</v>
+        <v>569</v>
       </c>
       <c r="O46" s="120" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="P46" s="120" t="s">
-        <v>395</v>
+        <v>629</v>
       </c>
       <c r="Q46" s="120"/>
       <c r="R46" s="120" t="s">
-        <v>619</v>
+        <v>571</v>
       </c>
       <c r="S46" s="94"/>
       <c r="V46" s="60"/>
@@ -8445,45 +8497,45 @@
     <row r="48" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="56"/>
       <c r="D48" s="119" t="s">
-        <v>573</v>
+        <v>280</v>
       </c>
       <c r="E48" s="119" t="s">
-        <v>574</v>
+        <v>316</v>
       </c>
       <c r="F48" s="119"/>
       <c r="G48" s="119" t="s">
-        <v>578</v>
+        <v>282</v>
       </c>
       <c r="H48" s="119" t="s">
-        <v>577</v>
+        <v>257</v>
       </c>
       <c r="I48" s="119" t="s">
-        <v>572</v>
+        <v>323</v>
       </c>
       <c r="J48" s="119" t="s">
-        <v>620</v>
+        <v>579</v>
       </c>
       <c r="K48" s="119" t="s">
-        <v>629</v>
+        <v>299</v>
       </c>
       <c r="L48" s="119"/>
       <c r="M48" s="119" t="s">
-        <v>629</v>
+        <v>299</v>
       </c>
       <c r="N48" s="119" t="s">
-        <v>596</v>
+        <v>300</v>
       </c>
       <c r="O48" s="119" t="s">
-        <v>581</v>
+        <v>284</v>
       </c>
       <c r="P48" s="119" t="s">
-        <v>582</v>
+        <v>285</v>
       </c>
       <c r="Q48" s="119" t="s">
-        <v>614</v>
+        <v>269</v>
       </c>
       <c r="R48" s="119" t="s">
-        <v>607</v>
+        <v>310</v>
       </c>
       <c r="S48" s="91"/>
       <c r="V48" s="60"/>
@@ -8544,45 +8596,45 @@
     <row r="50" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="58"/>
       <c r="D50" s="120" t="s">
-        <v>351</v>
+        <v>581</v>
       </c>
       <c r="E50" s="120" t="s">
-        <v>352</v>
+        <v>582</v>
       </c>
       <c r="F50" s="120"/>
       <c r="G50" s="120" t="s">
-        <v>356</v>
+        <v>586</v>
       </c>
       <c r="H50" s="120" t="s">
-        <v>373</v>
+        <v>585</v>
       </c>
       <c r="I50" s="120" t="s">
-        <v>349</v>
+        <v>578</v>
       </c>
       <c r="J50" s="120" t="s">
-        <v>350</v>
+        <v>580</v>
       </c>
       <c r="K50" s="120" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="L50" s="120"/>
       <c r="M50" s="120" t="s">
+        <v>614</v>
+      </c>
+      <c r="N50" s="120" t="s">
+        <v>615</v>
+      </c>
+      <c r="O50" s="120" t="s">
+        <v>589</v>
+      </c>
+      <c r="P50" s="120" t="s">
+        <v>590</v>
+      </c>
+      <c r="Q50" s="120" t="s">
+        <v>569</v>
+      </c>
+      <c r="R50" s="120" t="s">
         <v>630</v>
-      </c>
-      <c r="N50" s="120" t="s">
-        <v>382</v>
-      </c>
-      <c r="O50" s="120" t="s">
-        <v>359</v>
-      </c>
-      <c r="P50" s="120" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q50" s="120" t="s">
-        <v>615</v>
-      </c>
-      <c r="R50" s="120" t="s">
-        <v>396</v>
       </c>
       <c r="S50" s="94"/>
       <c r="V50" s="60"/>
@@ -8610,32 +8662,32 @@
     <row r="52" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="56"/>
       <c r="D52" s="119" t="s">
-        <v>637</v>
+        <v>311</v>
       </c>
       <c r="E52" s="119"/>
       <c r="F52" s="119" t="s">
-        <v>586</v>
+        <v>290</v>
       </c>
       <c r="G52" s="119" t="s">
-        <v>623</v>
+        <v>333</v>
       </c>
       <c r="H52" s="119" t="s">
-        <v>618</v>
+        <v>275</v>
       </c>
       <c r="I52" s="119" t="s">
-        <v>580</v>
+        <v>283</v>
       </c>
       <c r="J52" s="119" t="s">
-        <v>604</v>
+        <v>305</v>
       </c>
       <c r="K52" s="119" t="s">
-        <v>614</v>
+        <v>269</v>
       </c>
       <c r="L52" s="119" t="s">
-        <v>639</v>
+        <v>312</v>
       </c>
       <c r="M52" s="119" t="s">
-        <v>608</v>
+        <v>313</v>
       </c>
       <c r="N52" s="119"/>
       <c r="O52" s="105"/>
@@ -8693,32 +8745,32 @@
     <row r="54" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="58"/>
       <c r="D54" s="120" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="E54" s="120"/>
       <c r="F54" s="120" t="s">
-        <v>366</v>
+        <v>596</v>
       </c>
       <c r="G54" s="120" t="s">
-        <v>479</v>
+        <v>597</v>
       </c>
       <c r="H54" s="120" t="s">
-        <v>619</v>
+        <v>571</v>
       </c>
       <c r="I54" s="120" t="s">
-        <v>358</v>
+        <v>588</v>
       </c>
       <c r="J54" s="120" t="s">
-        <v>392</v>
+        <v>624</v>
       </c>
       <c r="K54" s="120" t="s">
-        <v>615</v>
+        <v>569</v>
       </c>
       <c r="L54" s="120" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="M54" s="120" t="s">
-        <v>399</v>
+        <v>633</v>
       </c>
       <c r="N54" s="120"/>
       <c r="O54" s="106"/>

--- a/output7/【河洛白話注音-雅俗通】《上有力量的每日祈禱文》.xlsx
+++ b/output7/【河洛白話注音-雅俗通】《上有力量的每日祈禱文》.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{509EA809-84B8-4EB5-A6B0-062F3C8B9C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1F82549-17FA-4BDF-8538-88A2AB076A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23970" yWindow="2460" windowWidth="22575" windowHeight="12555" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-28170" yWindow="2040" windowWidth="28725" windowHeight="12555" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="631">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2340,314 +2340,302 @@
     <t>φ</t>
   </si>
   <si>
-    <t>尚有力量的每日祈禱文
+    <t>白話音</t>
+  </si>
+  <si>
+    <t>地</t>
+  </si>
+  <si>
+    <t>與</t>
+  </si>
+  <si>
+    <t>《上有力量的每日祈禱文》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭七時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經八柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規二毛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居五求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高二地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君五門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艍七英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丩七耐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伽五英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巾八柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君二語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼一去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居一邊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經三求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭二語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干三曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘二求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迦七時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公八喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭五曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘四求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皆三英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觀五曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經五柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伽三地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居三曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高五門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規二英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓜七地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艍三時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君五時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽三時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伽三時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皆三求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高五喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pinn5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梔五邊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君五喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觀四他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規五英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驚二求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居五柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巾一英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居七時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭一曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經八求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巾五門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艍一時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丩三求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭八時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君一曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽二時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經三時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堅四地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膠三求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檜三喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皆七地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茄二邊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檜八他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經一時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>予</t>
+  </si>
+  <si>
+    <t>沽七喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ah8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jin5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膠八英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居二門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皆二求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巾五入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上有力量的每日祈禱文
 阮謙卑地敬仰、讚美、感謝、服從与愛全能的上帝，至高無上的上帝，上偉大的上帝，賜與純素世界、世界和平与阮靈魂的解脫。
-阮感謝、愛和讚美上帝唯一的子兒，伊是終極明師，賜與阮救贖。
-阮遵循所有聖人与聖哲的教誨，阮感謝、愛与讚美伊，伊是上帝的代表，賜與阮靈性的提昇。</t>
-  </si>
-  <si>
-    <t>白話音</t>
-  </si>
-  <si>
-    <t>地</t>
-  </si>
-  <si>
-    <t>與</t>
-  </si>
-  <si>
-    <t>《上有力量的每日祈禱文》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭七時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經八柳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>規二毛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>居五求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高二地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>君五門</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艍七英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丩七耐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伽五英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巾八柳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>君二語</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兼一去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>居一邊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>te7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伽七地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經三求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭二語</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>干三曾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sui2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>規二時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甘二求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迦七時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公八喜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭五曾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甘四求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皆三英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>觀五曾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經五柳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姜七時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伽三地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>居三曾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高一求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高五門</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>規二英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓜七地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艍三時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甘四語</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>君五時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽三時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伽三時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皆三求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高五喜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pinn5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梔五邊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>君五喜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交二他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>觀四他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>規五英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zit8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巾八曾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>驚二求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>居五柳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巾一英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>居七時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭一曾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經八求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巾五門</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艍一時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丩三求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭八時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>君一曾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽二時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經三時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江五柳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>堅四地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>膠三求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>檜三喜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皆七地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>茄二邊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>檜八他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經一時</t>
+阮感謝、愛与讚美上帝唯一的子兒，伊是終極明師，賜予阮救贖。
+阮遵循所有聖人与聖哲的教誨，阮感謝、愛与讚美伊，伊是上帝的代表，賜予阮靈性的提昇。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巾四英</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6651,7 +6639,7 @@
   <dimension ref="B1:C17"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="25.5"/>
@@ -6691,7 +6679,7 @@
         <v>165</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -6747,7 +6735,7 @@
         <v>193</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="12" spans="2:3">
@@ -6910,7 +6898,7 @@
       <c r="R3" s="81"/>
       <c r="T3" s="90"/>
       <c r="V3" s="107" t="s">
-        <v>556</v>
+        <v>629</v>
       </c>
     </row>
     <row r="4" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
@@ -6958,7 +6946,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="113" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="E5" s="113" t="s">
         <v>188</v>
@@ -7003,34 +6991,34 @@
       <c r="B6" s="58"/>
       <c r="C6" s="85"/>
       <c r="D6" s="120" t="s">
+        <v>560</v>
+      </c>
+      <c r="E6" s="120" t="s">
+        <v>566</v>
+      </c>
+      <c r="F6" s="120" t="s">
         <v>561</v>
       </c>
-      <c r="E6" s="120" t="s">
+      <c r="G6" s="120" t="s">
         <v>567</v>
       </c>
-      <c r="F6" s="120" t="s">
+      <c r="H6" s="120" t="s">
+        <v>568</v>
+      </c>
+      <c r="I6" s="120" t="s">
         <v>562</v>
       </c>
-      <c r="G6" s="120" t="s">
-        <v>568</v>
-      </c>
-      <c r="H6" s="120" t="s">
+      <c r="J6" s="120" t="s">
         <v>569</v>
       </c>
-      <c r="I6" s="120" t="s">
+      <c r="K6" s="120" t="s">
         <v>563</v>
       </c>
-      <c r="J6" s="120" t="s">
-        <v>570</v>
-      </c>
-      <c r="K6" s="120" t="s">
+      <c r="L6" s="120" t="s">
         <v>564</v>
       </c>
-      <c r="L6" s="120" t="s">
+      <c r="M6" s="120" t="s">
         <v>565</v>
-      </c>
-      <c r="M6" s="120" t="s">
-        <v>566</v>
       </c>
       <c r="N6" s="120"/>
       <c r="O6" s="106"/>
@@ -7135,12 +7123,16 @@
       <c r="D11" s="118"/>
       <c r="E11" s="118"/>
       <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
+      <c r="G11" s="118" t="s">
+        <v>623</v>
+      </c>
       <c r="H11" s="118"/>
       <c r="I11" s="118"/>
       <c r="J11" s="118"/>
       <c r="K11" s="118"/>
-      <c r="L11" s="118"/>
+      <c r="L11" s="118" t="s">
+        <v>260</v>
+      </c>
       <c r="M11" s="118"/>
       <c r="N11" s="118"/>
       <c r="O11" s="118"/>
@@ -7161,7 +7153,7 @@
         <v>277</v>
       </c>
       <c r="G12" s="119" t="s">
-        <v>574</v>
+        <v>623</v>
       </c>
       <c r="H12" s="119" t="s">
         <v>278</v>
@@ -7174,7 +7166,7 @@
         <v>323</v>
       </c>
       <c r="L12" s="119" t="s">
-        <v>579</v>
+        <v>260</v>
       </c>
       <c r="M12" s="119"/>
       <c r="N12" s="119" t="s">
@@ -7208,7 +7200,7 @@
         <v>214</v>
       </c>
       <c r="G13" s="113" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H13" s="113" t="s">
         <v>215</v>
@@ -7249,43 +7241,43 @@
     <row r="14" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="58"/>
       <c r="D14" s="120" t="s">
+        <v>570</v>
+      </c>
+      <c r="E14" s="120" t="s">
         <v>571</v>
       </c>
-      <c r="E14" s="120" t="s">
+      <c r="F14" s="120" t="s">
         <v>572</v>
       </c>
-      <c r="F14" s="120" t="s">
+      <c r="G14" s="120" t="s">
+        <v>625</v>
+      </c>
+      <c r="H14" s="120" t="s">
         <v>573</v>
       </c>
-      <c r="G14" s="120" t="s">
-        <v>575</v>
-      </c>
-      <c r="H14" s="120" t="s">
-        <v>576</v>
-      </c>
       <c r="I14" s="120" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="J14" s="120"/>
       <c r="K14" s="120" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="L14" s="120" t="s">
-        <v>580</v>
+        <v>626</v>
       </c>
       <c r="M14" s="120"/>
       <c r="N14" s="120" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="O14" s="120" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="P14" s="120"/>
       <c r="Q14" s="120" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="R14" s="120" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="S14" s="94"/>
       <c r="V14" s="108"/>
@@ -7328,7 +7320,7 @@
         <v>269</v>
       </c>
       <c r="I16" s="119" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="J16" s="119" t="s">
         <v>285</v>
@@ -7344,13 +7336,13 @@
         <v>287</v>
       </c>
       <c r="O16" s="119" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="P16" s="119" t="s">
         <v>269</v>
       </c>
       <c r="Q16" s="119" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="R16" s="119" t="s">
         <v>285</v>
@@ -7414,47 +7406,47 @@
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="58"/>
       <c r="D18" s="120" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="E18" s="120" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="F18" s="120" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="G18" s="120" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="H18" s="120" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I18" s="120" t="s">
-        <v>589</v>
+        <v>560</v>
       </c>
       <c r="J18" s="120" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="K18" s="120"/>
       <c r="L18" s="120" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="M18" s="120" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="N18" s="120" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="O18" s="120" t="s">
-        <v>589</v>
+        <v>560</v>
       </c>
       <c r="P18" s="120" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="Q18" s="120" t="s">
-        <v>589</v>
+        <v>560</v>
       </c>
       <c r="R18" s="120" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="S18" s="94"/>
       <c r="V18" s="108"/>
@@ -7471,7 +7463,9 @@
       <c r="J19" s="118"/>
       <c r="K19" s="118"/>
       <c r="L19" s="118"/>
-      <c r="M19" s="118"/>
+      <c r="M19" s="118" t="s">
+        <v>267</v>
+      </c>
       <c r="N19" s="118"/>
       <c r="O19" s="118"/>
       <c r="P19" s="118"/>
@@ -7483,7 +7477,7 @@
       <c r="B20" s="56"/>
       <c r="D20" s="119"/>
       <c r="E20" s="119" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="F20" s="119" t="s">
         <v>288</v>
@@ -7495,7 +7489,7 @@
         <v>269</v>
       </c>
       <c r="I20" s="119" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="J20" s="119" t="s">
         <v>285</v>
@@ -7505,7 +7499,7 @@
         <v>290</v>
       </c>
       <c r="M20" s="119" t="s">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="N20" s="119" t="s">
         <v>291</v>
@@ -7556,7 +7550,7 @@
         <v>229</v>
       </c>
       <c r="M21" s="114" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="N21" s="113" t="s">
         <v>230</v>
@@ -7580,41 +7574,41 @@
       <c r="B22" s="58"/>
       <c r="D22" s="120"/>
       <c r="E22" s="120" t="s">
+        <v>560</v>
+      </c>
+      <c r="F22" s="120" t="s">
+        <v>588</v>
+      </c>
+      <c r="G22" s="120" t="s">
         <v>589</v>
       </c>
-      <c r="F22" s="120" t="s">
-        <v>594</v>
-      </c>
-      <c r="G22" s="120" t="s">
-        <v>595</v>
-      </c>
       <c r="H22" s="120" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I22" s="120" t="s">
-        <v>589</v>
+        <v>560</v>
       </c>
       <c r="J22" s="120" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="K22" s="120"/>
       <c r="L22" s="120" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="M22" s="120" t="s">
-        <v>597</v>
+        <v>566</v>
       </c>
       <c r="N22" s="120" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="O22" s="120" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="P22" s="120" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="Q22" s="120" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="R22" s="120"/>
       <c r="S22" s="94"/>
@@ -7632,7 +7626,9 @@
       <c r="J23" s="118"/>
       <c r="K23" s="118"/>
       <c r="L23" s="118"/>
-      <c r="M23" s="118"/>
+      <c r="M23" s="118" t="s">
+        <v>262</v>
+      </c>
       <c r="N23" s="118"/>
       <c r="O23" s="118"/>
       <c r="P23" s="118"/>
@@ -7652,7 +7648,7 @@
         <v>327</v>
       </c>
       <c r="G24" s="119" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="H24" s="119" t="s">
         <v>257</v>
@@ -7670,7 +7666,7 @@
         <v>269</v>
       </c>
       <c r="M24" s="119" t="s">
-        <v>606</v>
+        <v>262</v>
       </c>
       <c r="N24" s="119" t="s">
         <v>295</v>
@@ -7736,37 +7732,37 @@
     <row r="26" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="58"/>
       <c r="D26" s="120" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="E26" s="120" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="F26" s="120" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="G26" s="120" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="H26" s="120" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="I26" s="120" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J26" s="120" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="K26" s="120" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="L26" s="120" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M26" s="120" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="N26" s="120" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="O26" s="120"/>
       <c r="P26" s="120"/>
@@ -7896,7 +7892,9 @@
       <c r="L31" s="118"/>
       <c r="M31" s="118"/>
       <c r="N31" s="118"/>
-      <c r="O31" s="118"/>
+      <c r="O31" s="118" t="s">
+        <v>263</v>
+      </c>
       <c r="P31" s="118"/>
       <c r="Q31" s="118"/>
       <c r="R31" s="118"/>
@@ -7922,16 +7920,16 @@
         <v>282</v>
       </c>
       <c r="I32" s="119" t="s">
-        <v>327</v>
+        <v>257</v>
       </c>
       <c r="J32" s="119" t="s">
         <v>323</v>
       </c>
       <c r="K32" s="119" t="s">
-        <v>579</v>
+        <v>260</v>
       </c>
       <c r="L32" s="119" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="M32" s="119" t="s">
         <v>285</v>
@@ -7940,7 +7938,7 @@
         <v>296</v>
       </c>
       <c r="O32" s="119" t="s">
-        <v>610</v>
+        <v>263</v>
       </c>
       <c r="P32" s="119" t="s">
         <v>269</v>
@@ -7979,12 +7977,12 @@
         <v>223</v>
       </c>
       <c r="I33" s="113" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="J33" s="113" t="s">
         <v>217</v>
       </c>
-      <c r="K33" s="113" t="s">
+      <c r="K33" s="102" t="s">
         <v>218</v>
       </c>
       <c r="L33" s="113" t="s">
@@ -8014,47 +8012,47 @@
     <row r="34" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="58"/>
       <c r="D34" s="120" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E34" s="120" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F34" s="120" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G34" s="120"/>
       <c r="H34" s="120" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I34" s="120" t="s">
+        <v>580</v>
+      </c>
+      <c r="J34" s="120" t="s">
+        <v>575</v>
+      </c>
+      <c r="K34" s="120" t="s">
+        <v>626</v>
+      </c>
+      <c r="L34" s="120" t="s">
+        <v>560</v>
+      </c>
+      <c r="M34" s="120" t="s">
+        <v>584</v>
+      </c>
+      <c r="N34" s="120" t="s">
+        <v>600</v>
+      </c>
+      <c r="O34" s="120" t="s">
+        <v>630</v>
+      </c>
+      <c r="P34" s="120" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q34" s="120" t="s">
+        <v>601</v>
+      </c>
+      <c r="R34" s="120" t="s">
         <v>602</v>
-      </c>
-      <c r="J34" s="120" t="s">
-        <v>578</v>
-      </c>
-      <c r="K34" s="120" t="s">
-        <v>580</v>
-      </c>
-      <c r="L34" s="120" t="s">
-        <v>589</v>
-      </c>
-      <c r="M34" s="120" t="s">
-        <v>590</v>
-      </c>
-      <c r="N34" s="120" t="s">
-        <v>609</v>
-      </c>
-      <c r="O34" s="120" t="s">
-        <v>611</v>
-      </c>
-      <c r="P34" s="120" t="s">
-        <v>569</v>
-      </c>
-      <c r="Q34" s="120" t="s">
-        <v>612</v>
-      </c>
-      <c r="R34" s="120" t="s">
-        <v>613</v>
       </c>
       <c r="S34" s="94"/>
       <c r="V34" s="60"/>
@@ -8105,7 +8103,7 @@
         <v>290</v>
       </c>
       <c r="M36" s="119" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="N36" s="119" t="s">
         <v>275</v>
@@ -8154,7 +8152,7 @@
         <v>229</v>
       </c>
       <c r="M37" s="113" t="s">
-        <v>559</v>
+        <v>621</v>
       </c>
       <c r="N37" s="113" t="s">
         <v>212</v>
@@ -8180,38 +8178,38 @@
       <c r="B38" s="58"/>
       <c r="D38" s="120"/>
       <c r="E38" s="120" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="F38" s="120" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="G38" s="120" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="H38" s="120" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="I38" s="120" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="J38" s="120" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="K38" s="120"/>
       <c r="L38" s="120" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="M38" s="120" t="s">
-        <v>597</v>
+        <v>622</v>
       </c>
       <c r="N38" s="120" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="O38" s="120" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="P38" s="120" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="Q38" s="120"/>
       <c r="R38" s="120"/>
@@ -8314,7 +8312,9 @@
       <c r="G43" s="118"/>
       <c r="H43" s="118"/>
       <c r="I43" s="118"/>
-      <c r="J43" s="118"/>
+      <c r="J43" s="118" t="s">
+        <v>624</v>
+      </c>
       <c r="K43" s="118"/>
       <c r="L43" s="118"/>
       <c r="M43" s="118"/>
@@ -8346,7 +8346,7 @@
         <v>305</v>
       </c>
       <c r="J44" s="119" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K44" s="119" t="s">
         <v>257</v>
@@ -8429,47 +8429,47 @@
     <row r="46" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="58"/>
       <c r="D46" s="120" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E46" s="120" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="F46" s="120" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="G46" s="120" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="H46" s="120" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I46" s="120" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="J46" s="120" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="K46" s="120" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="L46" s="120" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="M46" s="120" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="N46" s="120" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="O46" s="120" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="P46" s="120" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="Q46" s="120"/>
       <c r="R46" s="120" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="S46" s="94"/>
       <c r="V46" s="60"/>
@@ -8513,7 +8513,7 @@
         <v>323</v>
       </c>
       <c r="J48" s="119" t="s">
-        <v>579</v>
+        <v>260</v>
       </c>
       <c r="K48" s="119" t="s">
         <v>299</v>
@@ -8526,7 +8526,7 @@
         <v>300</v>
       </c>
       <c r="O48" s="119" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="P48" s="119" t="s">
         <v>285</v>
@@ -8563,7 +8563,7 @@
       <c r="I49" s="113" t="s">
         <v>217</v>
       </c>
-      <c r="J49" s="113" t="s">
+      <c r="J49" s="102" t="s">
         <v>218</v>
       </c>
       <c r="K49" s="113" t="s">
@@ -8596,45 +8596,45 @@
     <row r="50" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="58"/>
       <c r="D50" s="120" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="E50" s="120" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="F50" s="120"/>
       <c r="G50" s="120" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="H50" s="120" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="I50" s="120" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="J50" s="120" t="s">
-        <v>580</v>
+        <v>626</v>
       </c>
       <c r="K50" s="120" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="L50" s="120"/>
       <c r="M50" s="120" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="N50" s="120" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="O50" s="120" t="s">
-        <v>589</v>
+        <v>560</v>
       </c>
       <c r="P50" s="120" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="Q50" s="120" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="R50" s="120" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="S50" s="94"/>
       <c r="V50" s="60"/>
@@ -8669,7 +8669,7 @@
         <v>290</v>
       </c>
       <c r="G52" s="119" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H52" s="119" t="s">
         <v>275</v>
@@ -8712,7 +8712,7 @@
         <v>229</v>
       </c>
       <c r="G53" s="113" t="s">
-        <v>559</v>
+        <v>621</v>
       </c>
       <c r="H53" s="113" t="s">
         <v>212</v>
@@ -8745,32 +8745,32 @@
     <row r="54" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="58"/>
       <c r="D54" s="120" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="E54" s="120"/>
       <c r="F54" s="120" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="G54" s="120" t="s">
-        <v>597</v>
+        <v>622</v>
       </c>
       <c r="H54" s="120" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I54" s="120" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="J54" s="120" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="K54" s="120" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L54" s="120" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="M54" s="120" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="N54" s="120"/>
       <c r="O54" s="106"/>
